--- a/SOC_Photon/Battery State/BattleBorn Calculator.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn Calculator.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\myStateOfCharge\SOC_Photon\Battery State\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculator" sheetId="1" r:id="rId1"/>
+    <sheet name="BattleBorn Calculator" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>OAT, C</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Ohms</t>
   </si>
   <si>
-    <t>Battery Temp</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -99,14 +96,21 @@
   </si>
   <si>
     <t>soc</t>
+  </si>
+  <si>
+    <t>14-120</t>
+  </si>
+  <si>
+    <t>Battery Temp (14 - 120 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -407,9 +411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -425,6 +426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,51 +711,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="17" width="8.88671875" style="1" customWidth="1"/>
-    <col min="18" max="27" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="28" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -760,536 +767,548 @@
         <v>8</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7">
-        <f>(0.0018+0.004)*G10</f>
+      <c r="H2" s="7">
+        <f>(0.0018+0.004)*H10</f>
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>-10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>3.3483399767315909</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P2" s="11">
+      <c r="Q2" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="R2" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13">
+        <v>120</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
-        <v>74.634</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$L$2:$L$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H3" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$M$2:$M$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.47799999999999998</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M3" s="9">
+      <c r="N3" s="9">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>3.5247557002832086</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17">
+        <v>13.7</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="17">
-        <v>13.12</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$M$2:$M$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>-0.56886777399571442</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="H4" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-0.46680396129646923</v>
+      </c>
+      <c r="L4" s="8">
         <v>10</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>-1.143251503157807</v>
       </c>
-      <c r="N4" s="10">
+      <c r="O4" s="10">
         <v>3.5539644353434743</v>
       </c>
-      <c r="O4" s="10">
+      <c r="P4" s="10">
         <v>-1.7704346329793603</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="R4" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20">
-        <v>-0.2</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$N$2:$N$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>2.7888246006124962</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="H5" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>2.7443989813252396</v>
+      </c>
+      <c r="L5" s="8">
         <v>20</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>-0.57795540028306935</v>
       </c>
-      <c r="N5" s="10">
+      <c r="O5" s="10">
         <v>2.7782710208104895</v>
       </c>
-      <c r="O5" s="10">
+      <c r="P5" s="10">
         <v>-1.0994517959124805</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="22"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="15"/>
-      <c r="K6" s="8">
+      <c r="G6" s="6"/>
+      <c r="H6" s="15"/>
+      <c r="L6" s="8">
         <v>30</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>-0.55329798798696006</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <v>2.8069059976624819</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <v>-1.1254678290104727</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="R6" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31">
+        <f ca="1">IF($F$13&gt;=$H$13, IF($F$13&lt;$H$37, (FORECAST($F$13,OFFSET($G$13:$G$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2),OFFSET($H$13:$H$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2)))*100, 100), 0)</f>
+        <v>100</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="25">
-        <f ca="1">(FORECAST($E$13,OFFSET($F$13:$F$36,MATCH($E$13,$G$13:$G$36,1)-1,0,2),OFFSET($G$13:$G$36,MATCH($E$13,$G$13:$G$36,1)-1,0,2)))*100</f>
-        <v>92.664398481952219</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$O$2:$O$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
-        <v>-1.1090401494442628</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="H7" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
+        <v>-1.0701617141417072</v>
+      </c>
+      <c r="L7" s="8">
         <v>40</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>-0.55710475700016193</v>
       </c>
-      <c r="N7" s="10">
+      <c r="O7" s="10">
         <v>2.8512557761146389</v>
       </c>
-      <c r="O7" s="10">
+      <c r="P7" s="10">
         <v>-1.1592275633503999</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="R7" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$P$2:$P$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H8" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$Q$2:$Q$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>0.4</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>50.000010000000003</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>0.47799999999999998</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>-0.45551626024511238</v>
       </c>
-      <c r="N8" s="10">
+      <c r="O8" s="10">
         <v>2.7310417617626701</v>
       </c>
-      <c r="O8" s="10">
+      <c r="P8" s="10">
         <v>-1.0590283827915401</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <v>0.4</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="R8" s="11">
         <v>1.734</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="26" t="s">
-        <v>19</v>
+      <c r="B9" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="15">
-        <f ca="1">FORECAST(G$11,OFFSET(Calculator!$Q$2:$Q$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2),OFFSET(Calculator!$K$2:$K$8,MATCH(G$11,Calculator!$K$2:$K$8,1)-1,0,2))</f>
+      <c r="H9" s="15">
+        <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$R$2:$R$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
         <v>1.734</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="27">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="28">
-        <v>4</v>
-      </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F11" s="6" t="s">
+      <c r="H11" s="28">
+        <f>(C3-32)*5/9</f>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="29">
-        <f>(C3-32)*5/9</f>
-        <v>23.685555555555556</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <f>C4-C5*G2</f>
-        <v>13.124639999999999</v>
-      </c>
+      <c r="H12" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F13">
+        <f>C4-C5*H2</f>
+        <v>13.7</v>
+      </c>
+      <c r="G13">
         <v>1E-3</v>
       </c>
-      <c r="G13" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F13))^G$3+G$7*$F13+G$9*EXP(G$8*($F13-1)))</f>
-        <v>10.070481876672051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F14">
+      <c r="H13" s="30">
+        <f t="shared" ref="H13:H37" ca="1" si="0">H$10*(H$5+H$4*(-LN($G13))^H$3+H$7*$G13+H$9*EXP(H$8*($G13-1)))</f>
+        <v>10.921270435538872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.728172043973755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G14" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F14))^G$3+G$7*$F14+G$9*EXP(G$8*($F14-1)))</f>
-        <v>11.493806879371228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F15">
+      <c r="H15" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.081908665018233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G16">
         <v>0.05</v>
       </c>
-      <c r="G15" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F15))^G$3+G$7*$F15+G$9*EXP(G$8*($F15-1)))</f>
-        <v>11.832254070260934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="F16">
+      <c r="H16" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.352090785033269</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17">
         <v>0.1</v>
       </c>
-      <c r="G16" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F16))^G$3+G$7*$F16+G$9*EXP(G$8*($F16-1)))</f>
-        <v>12.160681628101432</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17">
+      <c r="H17" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.606764784163836</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G18">
         <v>0.15</v>
       </c>
-      <c r="G17" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F17))^G$3+G$7*$F17+G$9*EXP(G$8*($F17-1)))</f>
-        <v>12.336413304607953</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18">
+      <c r="H18" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.736486235725325</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G19">
         <v>0.2</v>
       </c>
-      <c r="G18" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F18))^G$3+G$7*$F18+G$9*EXP(G$8*($F18-1)))</f>
-        <v>12.447955939721798</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19">
+      <c r="H19" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.813889478393094</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G20">
         <v>0.25</v>
       </c>
-      <c r="G19" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F19))^G$3+G$7*$F19+G$9*EXP(G$8*($F19-1)))</f>
-        <v>12.524594287038692</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20">
+      <c r="H20" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.863012278596582</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G21">
         <v>0.3</v>
       </c>
-      <c r="G20" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F20))^G$3+G$7*$F20+G$9*EXP(G$8*($F20-1)))</f>
-        <v>12.579965305656764</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21">
+      <c r="H21" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.895052212940437</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G22">
         <v>0.35</v>
       </c>
-      <c r="G21" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F21))^G$3+G$7*$F21+G$9*EXP(G$8*($F21-1)))</f>
-        <v>12.621682004514852</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22">
+      <c r="H22" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.91626384664742</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G23">
         <v>0.4</v>
       </c>
-      <c r="G22" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F22))^G$3+G$7*$F22+G$9*EXP(G$8*($F22-1)))</f>
-        <v>12.65454086302179</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23">
+      <c r="H23" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.930590695534356</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G24">
         <v>0.45</v>
       </c>
-      <c r="G23" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F23))^G$3+G$7*$F23+G$9*EXP(G$8*($F23-1)))</f>
-        <v>12.681861947137708</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24">
+      <c r="H24" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.940764907262137</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G25">
         <v>0.5</v>
       </c>
-      <c r="G24" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F24))^G$3+G$7*$F24+G$9*EXP(G$8*($F24-1)))</f>
-        <v>12.706143381368671</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25">
+      <c r="H25" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.948844313877634</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G25" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F25))^G$3+G$7*$F25+G$9*EXP(G$8*($F25-1)))</f>
-        <v>12.729426597247009</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26">
+      <c r="H26" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.95651215214469</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G27">
         <v>0.6</v>
       </c>
-      <c r="G26" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F26))^G$3+G$7*$F26+G$9*EXP(G$8*($F26-1)))</f>
-        <v>12.753532854811613</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F27">
+      <c r="H27" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.965271152584418</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G28">
         <v>0.65</v>
       </c>
-      <c r="G27" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F27))^G$3+G$7*$F27+G$9*EXP(G$8*($F27-1)))</f>
-        <v>12.780250610573193</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F28">
+      <c r="H28" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.976597293978275</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G29">
         <v>0.7</v>
       </c>
-      <c r="G28" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F28))^G$3+G$7*$F28+G$9*EXP(G$8*($F28-1)))</f>
-        <v>12.81152905573404</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F29">
+      <c r="H29" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.992098621151571</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G30">
         <v>0.75</v>
       </c>
-      <c r="G29" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F29))^G$3+G$7*$F29+G$9*EXP(G$8*($F29-1)))</f>
-        <v>12.84974300670018</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F30">
+      <c r="H30" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.013732613395415</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G31">
         <v>0.8</v>
       </c>
-      <c r="G30" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F30))^G$3+G$7*$F30+G$9*EXP(G$8*($F30-1)))</f>
-        <v>12.898154583581453</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F31">
+      <c r="H31" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.044185034090258</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G32">
         <v>0.85</v>
       </c>
-      <c r="G31" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F31))^G$3+G$7*$F31+G$9*EXP(G$8*($F31-1)))</f>
-        <v>12.961904448444917</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F32">
+      <c r="H32" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.087683328816944</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G33">
         <v>0.9</v>
       </c>
-      <c r="G32" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F32))^G$3+G$7*$F32+G$9*EXP(G$8*($F32-1)))</f>
-        <v>13.050700726149346</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33">
+      <c r="H33" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.152203115203825</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G34">
         <v>0.95</v>
       </c>
-      <c r="G33" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F33))^G$3+G$7*$F33+G$9*EXP(G$8*($F33-1)))</f>
-        <v>13.189454884642327</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34">
+      <c r="H34" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.258195822975788</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G35">
         <v>0.98</v>
       </c>
-      <c r="G34" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F34))^G$3+G$7*$F34+G$9*EXP(G$8*($F34-1)))</f>
-        <v>13.336177175975912</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35">
+      <c r="H35" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.374107345942264</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G36">
         <v>0.99</v>
       </c>
-      <c r="G35" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F35))^G$3+G$7*$F35+G$9*EXP(G$8*($F35-1)))</f>
-        <v>13.419396709118491</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36">
+      <c r="H36" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.440939892263243</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G37">
         <v>1</v>
       </c>
-      <c r="G36" s="31">
-        <f ca="1">G$10*(G$5+G$4*(-LN($F36))^G$3+G$7*$F36+G$9*EXP(G$8*($F36-1)))</f>
-        <v>13.655137804672933</v>
+      <c r="H37" s="30">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.632949068734129</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UmWdoRi/VNnqWUgqmL00ojb9aOjfB8WKJ1N2TGLUihUPzHNCaUrLTHOkF78rlI378W7nXQBFGhqfCzP7iWWCtg==" saltValue="WXrwurcLBYkujgxi8aP/fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SOC_Photon/Battery State/BattleBorn Calculator.xlsx
+++ b/SOC_Photon/Battery State/BattleBorn Calculator.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,10 +725,9 @@
     <col min="4" max="4" width="3.109375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="9" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="8.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="28" width="8.88671875" style="1"/>
+    <col min="10" max="18" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="8.88671875" style="1" customWidth="1"/>
+    <col min="22" max="28" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -771,8 +770,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="7">
-        <f>(0.0018+0.004)*H10</f>
-        <v>2.3199999999999998E-2</v>
+        <v>1.17E-2</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -805,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="13">
-        <v>120</v>
+        <v>71.495999999999995</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>11</v>
@@ -848,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="17">
-        <v>13.7</v>
+        <v>12.676</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>13</v>
@@ -858,7 +856,7 @@
       </c>
       <c r="H4" s="15">
         <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$N$2:$N$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>-0.46680396129646923</v>
+        <v>-0.57316638287266952</v>
       </c>
       <c r="L4" s="8">
         <v>10</v>
@@ -888,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="20">
-        <v>0</v>
+        <v>-25.169</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>15</v>
@@ -898,7 +896,7 @@
       </c>
       <c r="H5" s="15">
         <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$O$2:$O$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>2.7443989813252396</v>
+        <v>2.7838325696479655</v>
       </c>
       <c r="L5" s="8">
         <v>20</v>
@@ -958,7 +956,7 @@
       </c>
       <c r="C7" s="31">
         <f ca="1">IF($F$13&gt;=$H$13, IF($F$13&lt;$H$37, (FORECAST($F$13,OFFSET($G$13:$G$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2),OFFSET($H$13:$H$37,MATCH($F$13,$H$13:$H$37,1)-1,0,2)))*100, 100), 0)</f>
-        <v>100</v>
+        <v>86.116642684225653</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>17</v>
@@ -968,7 +966,7 @@
       </c>
       <c r="H7" s="15">
         <f ca="1">FORECAST(H$11,OFFSET('BattleBorn Calculator'!$P$2:$P$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2),OFFSET('BattleBorn Calculator'!$L$2:$L$8,MATCH(H$11,'BattleBorn Calculator'!$L$2:$L$8,1)-1,0,2))</f>
-        <v>-1.0701617141417072</v>
+        <v>-1.1045046876741795</v>
       </c>
       <c r="L7" s="8">
         <v>40</v>
@@ -1064,7 +1062,7 @@
       </c>
       <c r="H11" s="28">
         <f>(C3-32)*5/9</f>
-        <v>48.888888888888886</v>
+        <v>21.942222222222217</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1081,14 +1079,14 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F13">
         <f>C4-C5*H2</f>
-        <v>13.7</v>
+        <v>12.970477300000001</v>
       </c>
       <c r="G13">
         <v>1E-3</v>
       </c>
       <c r="H13" s="30">
         <f t="shared" ref="H13:H37" ca="1" si="0">H$10*(H$5+H$4*(-LN($G13))^H$3+H$7*$G13+H$9*EXP(H$8*($G13-1)))</f>
-        <v>10.921270435538872</v>
+        <v>10.007221615653858</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1097,7 +1095,7 @@
       </c>
       <c r="H14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11.728172043973755</v>
+        <v>11.001697470036007</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1106,7 +1104,7 @@
       </c>
       <c r="H15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.081908665018233</v>
+        <v>11.442202762834606</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1115,7 +1113,7 @@
       </c>
       <c r="H16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.352090785033269</v>
+        <v>11.784142355203278</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.3">
@@ -1124,7 +1122,7 @@
       </c>
       <c r="H17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.606764784163836</v>
+        <v>12.11691076247909</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.3">
@@ -1133,7 +1131,7 @@
       </c>
       <c r="H18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.736486235725325</v>
+        <v>12.295814825891025</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.3">
@@ -1142,7 +1140,7 @@
       </c>
       <c r="H19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.813889478393094</v>
+        <v>12.410029885537647</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.3">
@@ -1151,7 +1149,7 @@
       </c>
       <c r="H20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.863012278596582</v>
+        <v>12.489061681719125</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.3">
@@ -1160,7 +1158,7 @@
       </c>
       <c r="H21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.895052212940437</v>
+        <v>12.546649912701987</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.3">
@@ -1169,7 +1167,7 @@
       </c>
       <c r="H22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.91626384664742</v>
+        <v>12.590464800829722</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.3">
@@ -1178,7 +1176,7 @@
       </c>
       <c r="H23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.930590695534356</v>
+        <v>12.625338749672451</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.3">
@@ -1187,7 +1185,7 @@
       </c>
       <c r="H24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.940764907262137</v>
+        <v>12.654616586472031</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1194,7 @@
       </c>
       <c r="H25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.948844313877634</v>
+        <v>12.680814979477137</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.3">
@@ -1205,7 +1203,7 @@
       </c>
       <c r="H26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.95651215214469</v>
+        <v>12.705990446264522</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.3">
@@ -1214,7 +1212,7 @@
       </c>
       <c r="H27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.965271152584418</v>
+        <v>12.73197766234107</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.3">
@@ -1223,7 +1221,7 @@
       </c>
       <c r="H28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.976597293978275</v>
+        <v>12.760578244803057</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.3">
@@ -1232,7 +1230,7 @@
       </c>
       <c r="H29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12.992098621151571</v>
+        <v>12.793755752872217</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.3">
@@ -1241,7 +1239,7 @@
       </c>
       <c r="H30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.013732613395415</v>
+        <v>12.83390257988982</v>
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.3">
@@ -1250,7 +1248,7 @@
       </c>
       <c r="H31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.044185034090258</v>
+        <v>12.884305120310231</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.3">
@@ -1259,7 +1257,7 @@
       </c>
       <c r="H32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.087683328816944</v>
+        <v>12.950142498025425</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.3">
@@ -1268,7 +1266,7 @@
       </c>
       <c r="H33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.152203115203825</v>
+        <v>13.041195805685238</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.3">
@@ -1277,7 +1275,7 @@
       </c>
       <c r="H34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.258195822975788</v>
+        <v>13.182564354111129</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.3">
@@ -1286,7 +1284,7 @@
       </c>
       <c r="H35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.374107345942264</v>
+        <v>13.331325046733404</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.3">
@@ -1295,7 +1293,7 @@
       </c>
       <c r="H36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.440939892263243</v>
+        <v>13.415481664556609</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.3">
@@ -1304,11 +1302,11 @@
       </c>
       <c r="H37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13.632949068734129</v>
+        <v>13.653311527895145</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UmWdoRi/VNnqWUgqmL00ojb9aOjfB8WKJ1N2TGLUihUPzHNCaUrLTHOkF78rlI378W7nXQBFGhqfCzP7iWWCtg==" saltValue="WXrwurcLBYkujgxi8aP/fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UjXRMvT1Uw5PzS/bJ/+i6YK2syz7CSFIAblkKVEhz5OJ1pViOSY3aD4/L34PP6X874ciRPF9gpylRkP63pSCGA==" saltValue="oL/ER1jIoXaVKE1rBTg/SA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>